--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.4.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.4.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="686">
   <si>
     <t>key</t>
   </si>
@@ -52,10 +52,10 @@
     <t>version_faang_sc_rnaseq</t>
   </si>
   <si>
-    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Functional Annotation of Animal Genomes (FAANG)]</t>
-  </si>
-  <si>
-    <t>For single cell RNA-seq studies using  FAANG metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
+    <t>Functional Annotation of Animal Genomes metadata [Functional Annotation of Animal Genomes]</t>
+  </si>
+  <si>
+    <t>For single-cell Ribonucleic Acid Sequencing (RNA-seq) studies using  Functional Annotation of Animal Genomes (FAANG) metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
   <si>
     <t>faang</t>
@@ -91,7 +91,7 @@
     <t>A unique alphanumeric identifier for this study</t>
   </si>
   <si>
-    <t>e.g. A7F9B3X2</t>
+    <t>e.g. STUDY001</t>
   </si>
   <si>
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
@@ -223,7 +223,7 @@
     <t>A unique alphanumeric reference or identifier for the sample. This field must provide a consistent, unambiguous way to identify the sample within and across datasets. It can be a name, code, or accession-like format, as long as it remains unique.</t>
   </si>
   <si>
-    <t>e.g. sample123</t>
+    <t>e.g. SAMPLE001</t>
   </si>
   <si>
     <t>The formal Latin name used to identify the organism from which the sample was derived (e.g. Homo sapiens or Arabidopsis thaliana). This name must accurately correspond to the Taxon ID provided to ensure correct taxonomic classification.</t>
@@ -307,7 +307,7 @@
     <t>A unique alphanumeric code for the dissociation protocol in the study</t>
   </si>
   <si>
-    <t>e.g. disProtocol123</t>
+    <t>e.g. DISSOC001</t>
   </si>
   <si>
     <t>A descriptive name of the protocol used for single-cell sequencing.</t>
@@ -367,7 +367,7 @@
     <t>Provide a cell type from the CL ontology.</t>
   </si>
   <si>
-    <t>e.g. blastocyst</t>
+    <t>e.g. malignant cell</t>
   </si>
   <si>
     <t>The method by which tissues are dissociated into purified or single cells in suspension. Examples are 'proteolysis', 'mesh passage', 'fine needle trituration'. For blood, milk and other fluids, where there is no tissue dissociation use 'fluids'. Please contact FAANG DCC to add more terms.</t>
@@ -454,7 +454,7 @@
     <t>A unique alphanumeric code for the cell suspension for the sample</t>
   </si>
   <si>
-    <t>e.g. cellSusp123</t>
+    <t>e.g. CELLSUSP001</t>
   </si>
   <si>
     <t>A unique alphanumeric reference or identifier for the sample associated with the cell suspension. This field must provide a consistent, unambiguous way to identify the sample within and across datasets. It can be a name, code, or accession-like format, as long as it remains unique.</t>
@@ -673,7 +673,7 @@
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
-    <t>e.g. libPrep123</t>
+    <t>e.g. LIBPREP001</t>
   </si>
   <si>
     <t>A unique alphanumeric code for the cell suspension for the library preparation.</t>
@@ -796,7 +796,7 @@
     <t>Identifier for the 96-well plate used in sample preparation.</t>
   </si>
   <si>
-    <t>e.g. plate123</t>
+    <t>e.g. PLT001</t>
   </si>
   <si>
     <t>The row identifier in a 96-well plate indicating the sample's position.</t>
@@ -820,7 +820,7 @@
     <t>Date at which the pool was created.</t>
   </si>
   <si>
-    <t>e.g. YYYY-MM-DD</t>
+    <t>e.g. 2025-10-24</t>
   </si>
   <si>
     <t>A link to the protocol for pool of specimens creation.</t>
@@ -1108,7 +1108,7 @@
     <t>A unique alphanumeric reference or identifier for the sequencing protocol.</t>
   </si>
   <si>
-    <t>e.g. seq123</t>
+    <t>e.g. SEQ001</t>
   </si>
   <si>
     <t>The name of the sequencing platform used for the experiment.</t>
@@ -1787,6 +1787,9 @@
     <t>read_2_file (optional)</t>
   </si>
   <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
     <t>index_2_file (optional)</t>
   </si>
   <si>
@@ -1826,10 +1829,13 @@
     <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
-    <t>e.g. 32-char hex</t>
+    <t>e.g. f8d29e41a73b5c02de9a6fb314e7c8ad</t>
   </si>
   <si>
     <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. a3f4c1b29d8e57fa41b02de6c7f9ab83</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -1923,7 +1929,7 @@
     <t>A unique alphanumeric identifier for the expression data process setting</t>
   </si>
   <si>
-    <t>e.g. expdataprocess1</t>
+    <t>e.g. EXPSET001</t>
   </si>
   <si>
     <t>Matrix Type</t>
@@ -1935,25 +1941,25 @@
     <t>The associated reference genome</t>
   </si>
   <si>
-    <t>e.g. the download link for GRCh38.p13, GRCm39, TAIR10 …</t>
+    <t>e.g. https://reference-genome-example.com</t>
   </si>
   <si>
     <t>The annotation version of the associated reference genome</t>
   </si>
   <si>
-    <t>e.g. Ensembl 110, GENCODE v44 …</t>
+    <t>e.g. GENCODE v44</t>
   </si>
   <si>
     <t>Any normalisation processing performed</t>
   </si>
   <si>
-    <t>e.g. Log Normalisation</t>
+    <t>e.g. Log normalisation</t>
   </si>
   <si>
     <t>Number of Highly Variable Genes</t>
   </si>
   <si>
-    <t>e.g. seurat_v3, n=2000 (or none)</t>
+    <t>e.g. seurat_v3, n=2000</t>
   </si>
   <si>
     <t>Method used to reduce dimensionality in the expression data</t>
@@ -1965,7 +1971,7 @@
     <t>Number of nearest neighbours used to calculate cluster membership</t>
   </si>
   <si>
-    <t>e.g. pca:50, mnn:30 …</t>
+    <t>e.g. pca:50</t>
   </si>
   <si>
     <t>Algorithm used to create clusters</t>
@@ -1974,7 +1980,7 @@
     <t>Resolution parameter</t>
   </si>
   <si>
-    <t>e.g. Numeric (1.0) or NA</t>
+    <t>e.g. 2.5</t>
   </si>
   <si>
     <t>Metic used to calculate a points distance to others</t>
@@ -2037,7 +2043,7 @@
     <t>A unique alphanumeric identifier for the expression data file</t>
   </si>
   <si>
-    <t>e.g. AB3X2</t>
+    <t>e.g. EXPFILE001</t>
   </si>
   <si>
     <t>A unique alphanumeric identifier for library preparation</t>
@@ -2046,9 +2052,15 @@
     <t>Expression data file name</t>
   </si>
   <si>
+    <t>e.g. exp_file.csv</t>
+  </si>
+  <si>
     <t>calculated md5 checksum for this file</t>
   </si>
   <si>
+    <t>e.g. 9e4b7a23f6c1d0ab85f29c47e3d8a610</t>
+  </si>
+  <si>
     <t>The format of the expression file, such as h5ad or rds</t>
   </si>
   <si>
@@ -2058,10 +2070,19 @@
     <t>The number of cells represented in the expression data</t>
   </si>
   <si>
+    <t>e.g. 4</t>
+  </si>
+  <si>
     <t>The number of genese represented in the expression data</t>
   </si>
   <si>
+    <t>e.g. 50</t>
+  </si>
+  <si>
     <t>Size of the file recorded in bytes</t>
+  </si>
+  <si>
+    <t>e.g. 90</t>
   </si>
   <si>
     <t>Approximate date this expression data was generated</t>
@@ -2459,8 +2480,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="187" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2507,7 +2528,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FFAC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B22C" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2588,7 +2609,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C700" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B5AE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2795,7 +2816,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A00E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EFD5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -2871,7 +2892,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A508" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C12E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -2993,7 +3014,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF38" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E377" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3008,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3016,15 +3037,16 @@
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="248.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3032,69 +3054,75 @@
         <v>576</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>589</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="5" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -3102,34 +3130,37 @@
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>590</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -3143,13 +3174,14 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C668" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A7C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K4">
+  <conditionalFormatting sqref="A1:L4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3169,7 +3201,7 @@
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -3189,49 +3221,49 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>479</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3239,49 +3271,49 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3289,37 +3321,37 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>146</v>
@@ -3355,7 +3387,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B932" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F200" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3395,7 +3427,7 @@
     <col min="3" max="3" width="50.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -3408,34 +3440,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3443,34 +3475,34 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3478,34 +3510,34 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>214</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>146</v>
+        <v>673</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>146</v>
+        <v>679</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>146</v>
+        <v>681</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>146</v>
+        <v>683</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3524,7 +3556,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8E6D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D8E5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3629,7 +3661,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB5C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="94A8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -4396,7 +4428,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BD2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FD9B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4485,7 +4517,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8698" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0C4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -4673,7 +4705,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A141" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFBC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4901,7 +4933,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E18E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FC00" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5295,7 +5327,7 @@
       <c r="AF4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A917" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="90C4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AF4"/>
   </mergeCells>
@@ -5514,7 +5546,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F683" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="912A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
